--- a/metrics/MAPE/Retinopatía de fondo.xlsx
+++ b/metrics/MAPE/Retinopatía de fondo.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0271272442997468</v>
+        <v>0.0275039042882527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02651513468441785</v>
+        <v>0.02685838953207667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02649983964942353</v>
+        <v>0.02643507209440795</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02305744491257571</v>
+        <v>0.0230574449125757</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02305744491257571</v>
+        <v>0.02305744491257572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02305744491257571</v>
+        <v>0.02305744491257572</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03751470352238944</v>
+        <v>0.03918995323540073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03706088941512638</v>
+        <v>0.03803920028340045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03879785393471809</v>
+        <v>0.03829405489546816</v>
       </c>
     </row>
   </sheetData>
